--- a/jurisprudence_temp.xlsx
+++ b/jurisprudence_temp.xlsx
@@ -434,139 +434,203 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>04-11-2004</t>
+          <t>18-06-2024</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Arrêt N° 115-CA-S</t>
+          <t>Arrêt N° 04/CS-ERPM-HAAC</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Arrêt de déchéance</t>
+          <t>Arrêts de rejet</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>https://coursupreme.bj/jurisadmin/download?code=AR0000000932</t>
+          <t>https://coursupreme.bj/jurisadmin/download?code=AR0000001614</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>telechargement\AR0000000932.pdf</t>
+          <t>telechargement\AR0000001614.pdf</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t xml:space="preserve">|
-6G
-‘
-Pol] 2 eud-Neyo|ecs de dufou] 22°
-S
-5
-ia
-.
-o
-&lt;
-4
-.
-Z
-LHL
-N° 115/CA du Répertoire REPUBLIQUE DU BENIN
-N° 2002-118/CA du Greffe AU NOM DU PEUPLE BENINOIS
-Arrét du 04 novembre 2004 COUR SUPREME
-Affaire : Pierrette B. HOUNDETON CHAMBRE ADMINISTRATIVE
-C/ —— oe
-PREFET ATLANTIQUE
+          <t xml:space="preserve">N° 04/CS-ERPM-HAAC du répertoire REPUBLIQUE DU BENIN
+N° 2024-03/CS-ERPM-HAAC du greffe AU NOM DU PEUPLE BENINOIS
+Arrét du 18 juin 2024 COUR SUPREME
+AFFAIRE :
+Franck KPOCHEME
+C/
+Haute autorité de audiovisuel
+et de la communication (HAAC) et
+Basile TCHIBOZO
 La Cour,
-Vu la requéte en date 4 Cotonou du 12 septembre 2002,
-enregistrée au greffe de la Cour le 25 septembre 2002 sous le n°
-0925/GCS par laquelle dame HOUNDETON Pierrette, par l’organe
-de son conseil, Maitre Léopold OLORY-TOGBE, avocat prés la
-cour d’appel de Cotonou, a introduit un recours en annulation pour
-excés de pouvoir contre l’arrété n° 2/330/DEP-ATL/SG/SAD du 20
-juin 1994 par lequel le Préfet de l’atlantique lui a retiré la parcelle
-“N”’ du lot n° 454 du quartier N'VENAMEDE 4 Cotonou ;
-Vu la lettre n° 2269/GCS du 10 octobre 2002 par laquelle
-le conseil de la requérante a été invité, conformément aux
-dispositions de |’article 682 du Code Général des Impéts, 4 apposer
-des timbres fiscaux sur les feuillets de la requéte ;
-Vu la mise en demeure n° 2268/GCS du 10 octobre 2002,
-adressée au conseil de la requérante, |’invitant a consigner au greffe
-de la cour dans un délai de quinze jours la somme de cinq mille
-(5 000) francs et lui rappelant les termes de I’article 45 de
-Pordonnance n° 21/PR du 26 avril 1966 organisant la procédure
-devant la Cour supréme ;
-Vu la consignation constatée par recu n° 2460 du 29
-octobre 2002 ;
-Vu l’ordonnance n° 21/PR du 26 avril 1966 organisant la
-procédure devant la Cour supréme, remise en vigueur par la Loi
-n° 90-012 du 1“ juin 1990 ; «Ke
-Me _— i
-, el ‘
-Vu toutes les piéces du dossier ;
-Oui le Conseiller Joachim G. AKPAKA, en son
-rapport ;
-Oui l’Avocat Général Lucien Aristide DEGUENON en
-ses conclusions ;
-Aprés en avoir délibéré conformément ala loi;
-Considérant que par requéte en date du 12 septembre
-2002, Maitre Léopold OLORY-TOGBE, avocat a la cour, conseil
-de dame: Pierrette HOUNDETON, a introduit un recours en
-annulation pour excés de pouvoir contre Tarrété n° 2/330/DEP-
-ATL/SG/SAD du 20 juin 1994 par lequel le préfet de l’atlantique
-lui a retiré la parcelle ‘’N’ du lot n° 454 du quartier
-N’VENAMEDE a Cotonou ;
-Considérant que par lettre n° 2269/GCS du 10 octobre
-2002, le conseil de la requérante a été invité a satisfaire aux
-obligations prévues par I’article 682 du code général des impots ;
-Que par lettre n° 1131/GCS du 10 octobre 2003, une
-derniére mise en demeure lui a été adressée, |’invitant a apposer les
-timbres fiscaux sur les feuillets de sa requéte ; qu’a ce jour aucune
-suite n’y a été réservée ;
-Considérant que toutes les mises en demeure sont restées
-sans effet ;
-Que dés lors, il y a lieu de constater, au regard de la loi, la
-déchéance pure et simple de la requérante en son action ;
-PAR CES MOTIFS
-DECIDE :
-Article 1°" ; Madame HOUNDETON Pierrette est déchue
-de son pourvoi en date du 12 septembre 2002.
-Article 2 : Les dépens sont mis a sa charge.
-Article 3: Notification du présent arrét sera faite aux
-parties et au Procureur général prés la Cour supréme
-Pp be w
-a
-4
-»
-3
-.
-Ainsi fait et délibéré par la Cour supréme (chambre
-administrative) composée de :
-Jéréme O. ASSOGBA, conseiller a la chambre
-administrative ;
+Vu la requéte introductive d’instance en date 4 Cotonou du 14
+juin 2024, enregistrée au bureau d’orientation du greffe le méme jour
+sous le numéro 1700/BO, par laquelle Franck KPOCHEME, candidat
+aux élections des représentants des professionnels des médias au titre de
+la septiéme mandature de la Haute autorité de l’audiovisuel et de la
+communication (HAAC), catégorie presse écrite, domicilié 4 Cococodji,
+assisté de maitre Armand Tonankpon Thibaut AMADJI, avocat au
+barreau du Bénin, a saisi la haute Juridiction d’un recours en annulation
+des résultats provisoires desdites élections organisées le 09 juin 2024 au
+poste de vote de Porto-Novo ;
+Vu la loi n° 90-032 du 11 décembre 1990 portant Constitution
+he de la République du Bénin, telle que modifiée par la loi n° 2019-40 du
+07 novembre 2019 ;
+Vu la loi n° 2022-10 du 27 juin 2022 portant composition,
+organisation, fonctionnement et attributions de la Cour supréme ;
+Vu la loi n°2022-12 du 05 juillet 2022 portant régles
+particuligres de procédure applicables devant les formations
+juridictionnelles de la Cour supréme ;
+Vu la loi n°2022-13 du 05 juillet 2022 portant loi organique sur
+la Haute autorité de l’audiovisuel et de la communication ;
+Vu la décision n° 24-018/HAAC du 28 février 2024 portant
+cadre juridique pour les élections des représentants des professionnels
+des médias devant siéger 4 la Haute autorité de l’audiovisuel et de la
+communication pour la septiéme mandature ;
+Vu les observations des parties ;
+Vu les piéces du dossier ;
+Le président Etienne FIFATIN entendu en son rapport et le
+premier avocat général Hubert Arsene H. DADJO en ses conclusions ;
+Aprés en avoir délibéré conformément a la loi ;
+Considérant qu’au soutien de son recours, le requérant expose
+que dans le cadre des élections des représentants des professionnels des
+médias, du dimanche 09 juin 2024, son délégué, Seidou CHOUBADE,
+mandaté en cette qualité par la HAAC, lui a rendu compte de ce que
+certains électeurs ont regu des consignes de vote en faveur du candidat
+Basile TCHIBOZO, contre paiement 4 chacun, de la somme de dix
+mille (10.000) francs ;
+Qu’a cette fin, les téléphones portables de Joel ALLAGBE et
+Geoffroy WUSA ont été mis a la disposition de certains électeurs qui
+devront s’en servir dans l’isoloir pour faire la preuve de l’expression de
+leurs suffrages en faveur du candidat Basile TCHIBOZO ;
+Que la représentante de la HAAC, en la personne de Inés
+GNIMAGNON, aprés avoir sollicité l’intervention des agents de
+sécurité sur place, a tenté en vain de dissuader les intéressés ;
+Qu’en désespoir de cause, celle-ci a pris l’initiative de filmer la
+scéne mais en a été empéchée ;
+Que les agents de la police sur les lieux ont aussitét conduit
+cette derniére au poste de police du 2°"* arrondissement de Porto-
+Novo ;
+Qu’elle y a été gardée a vue de 11 heures 30 minutes a 13 heures
+35 minutes, soit pendant 2 heures 05 minutes, avant de revenir au poste
+de vote ;
+Que de sources concordantes, elle a été contrainte de supprimer
+de son téléphone portable la preuve de |’incident ;
+Qu’a la fin du scrutin, son mandataire audit poste de vote a été
+empéché d’inscrire les irrégularités sur le procés-verbal de déroulement
+du scrutin ;
+Que c’est dans ces conditions que les résultats provisoires ont
+été proclamés le mercredi 12 juin 2024, le créditant de 204 voix contre
+207 voix au profit de Basile TCHIBOZO, candidat déclaré élu ;
+taf
+Qu’il demande par conséquent a la Cour d’annuler purement et
+simplement les résultats provisoires au poste de vote de Porto-Novo ;
+EN LA FORME
+Considérant que le recours a été introduit dans les forme et délai
+de la loi ;
+Quw’il y a lieu de le déclarer recevable ;
+AU FOND
+Considérant que le recours de Franck KPOCHEME vise
+lannulation des suffrages exprimés au bureau de vote de Porto-Novo
+dans le cadre des élections du 09 juin 2024 des représentants des
+professionnels des médias devant siéger au titre de la septiéme
+mandature de la HAAC, catégorie presse écrite ;
+Qu’au soutien de sa demande, il dénonce des irrégularités
+consistant en des consignes de vote données par des partisans du
+candidat Basile TCHIBOZO a certains électeurs au profit de celui-ci,
+contre paiement a chacun, de la somme de dix mille (10.000) francs ;
+Que ces pressions exercées sur les électeurs ont déterminé les
+résultats sortis des urnes et qui sont en faveur de Basile TCHIBOZO ;
+Considérant que dans son mémoire en défense, le président de la
+HAAC a indiqué qu’une dizaine de professionnels des médias qui ont
+fini d’exprimer leur vote, se sont regroupés au poste de vote de Porto-
+Novo ot ils s’entretenaient avec les électeurs avant leurs votes ;
+Que la représentante de la HAAC, aprés avoir tenté sans succés,
+de les dissuader, a pris une vue panoramique de la situation afin d’en
+rendre compte a sa hiérarchie ;
+Que les intéressés ont réagi par des injures et des menaces ;
+Que l’agent de sécurité sur les lieux est intervenu pour retirer a
+la représentante de la HAAC son téléphone portable que |’un des
+journalistes tentait de lui arracher au motif qu’elle avait capturé son
+image contre son gré ;
+Qu’elle a été conduite au commissariat du 2*™* arrondissement
+de Porto-Novo pour y faire des dépositions qui ont duré de 11 heures 30
+minutes a 13 heures 30 minutes, avant de revenir sur les lieux du vote ;
+Considérant que pour sa part, le candidat déclaré provisoirement
+élu, Basile TCHIBOZO, dans ses écritures parvenues 4 la Cour le 17
+juin 2024, fait valoir que n’étant pas organisateur du scrutin, il ne lui
+t
+revient pas de répondre de l’usage des téléphones portables dans les
+lieux de vote et qu’il n’est pas rapporté la preuve que les électeurs qui
+se sont attroupés au bureau de vote de Porto-Novo, sont acquis a sa
+cause ;
+Qu’il conclut au rejet du recours ;
+Considérant que le recours tend a l’annulation des résultats
+provisoires des élections des représentants des professionnels des
+médias du 09 juin 2024 dans la catégorie presse écrite et de |’élection
+de Basile TCHIBOZO ;
+Considérant qu’a l’audience, le requérant a confirmé les faits de
+consignes de vote, de libéralités et de destruction de preuves a la suite
+de l’intervention de la police ;
+Qu’il a indiqué par ailleurs que les preuves de ces irrégularités
+n’ont malheureusement pas été conservées en raison de la destruction
+des images du téléphone portable de la représentante de la HAAC ;
+Considérant que Basile TCHIBOZO, intervenant a son tour a
+l’audience, a fait remarquer que les allégations du requérant sont sans
+fondement et ne constituent qu’une vue de l’esprit ;
+Considérant que la représentante de la HAAC, aprés avoir repris
+la relation des faits telle que présentée dans les observations de son
+institution, a précisé que déplorant |’attroupement des professionnels
+des médias sur les lieux de vote, elle a pris une photo pour en rendre
+compte a sa hiérarchie ;
+Que cette photo qu’elle a supprimée par la suite ne comportait
+en réalité que l’image de deux personnes ;
+Qu’elle n’a été témoin, ni de consignes de vote, ni de libéralités
+faites aux électeurs ;
+Considérant qu’il ressort du dossier que le requérant n’a établi,
+ni dans ses écritures, ni a |’audience, la preuve des consignes de vote et
+des dons qu’il dénonce ;
+Que du reste, les images prises et sur lesquelles il fonde ses
+réclamations, ne portent sur un quelconque fait d’achat de conscience,
+ni une libéralité, selon les propres dires de Inés GNIMAGNON,
+représentante de la HAAC au bureau de vote concerné ;
+Qu’au regard de tout ce qui précéde, il y a lieu de relever que
+les faits dénoncés ne sont pas établis, de déclarer par conséquent le
+recours non fondé et de le rejeter ;
+¢ of
+PAR CES MOTIFS,
+Décide :
+Article 1: Le recours en date 4 Cotonou du 14 juin 2024 de
+Franck KPOCHEME, candidat aux élections du 09 juin 2024 des
+représentants des professionnels des médias 4 la Haute autorité de
+laudiovisuel et de la communication (HAAC), pour le compte de la
+septiéme mandature, catégorie presse écrite, tendant a l’annulation des
+résultats provisoires du poste de vote de Porto-Novo, est recevable ;
+Article 2 : Ledit recours est rejeté ;
+Article 3: Le présent arrét sera notifié aux parties et au
+procureur général prés la Cour supréme.
+Ainsi fait et délibéré par la Cour supréme composée de :
+Etienne FIFATIN, conseiller 4 la chambre administrative ;
 PRESIDENT ;
-Joachim G. AKPAKA }
-ET
-Eliane PADONOU }
-CONSEILLERS ;
-Et prononcé a l’audience publique du jeudi quatre
-novembre deux mille quatre, la chambre étant composée comme il
-est dit ci-dessus en présence de :
-Lucien Aristide DEGUENON
+Césaire KPENONHOUN
+et
+Georges TOUMATOU CONSEILLERS ;
+Et prononcé a |’audience publique du mardi dix-huit juin deux
+mille vingt-quatre, la Cour étant composée comme il est dit ci-dessus en
+présence de :
+Hubert Arséne H. DADJO, premier avocat général,
 MINISTERE PUBLIC ;
-Et de Geneviéve GBEDO,
+Gédéon Affouda AKPONE,
 GREFFIER ;
-Et ont signé,
-Le Présid Le Rapporteur, Le Greffier.
-)
-= ete S
-yas =
-J.O. ASS! G. GBEDO.-
-Enrépistré 4 Cotonou le ve Af Ol los
-mc Shige neh ( -
-U'lnspacieus da
+Et ont signé :
+Le président rapporteur, Le greffier,
+Etienne FIFATIN Gédéon Affouda AKPONE
 </t>
         </is>
       </c>
